--- a/stock_orderpoint_impex_matrix/tests/fixtures/create_wh1_product20.xlsx
+++ b/stock_orderpoint_impex_matrix/tests/fixtures/create_wh1_product20.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Entrepôt YourCompany</t>
   </si>
   <si>
+    <t xml:space="preserve">Code Article</t>
+  </si>
+  <si>
     <t xml:space="preserve">Article</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Multiple de quantité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURN_9001</t>
   </si>
   <si>
     <t xml:space="preserve">Flipover</t>
@@ -122,8 +128,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -139,32 +149,83 @@
 </styleSheet>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{6EFA2BE2-B937-40E8-8351-D3881C749955}">
+  <header guid="{6EFA2BE2-B937-40E8-8351-D3881C749955}" dateTime="2020-09-21T15:05:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="2" maxSheetId="2">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1" ua="false" sId="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Code Article</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" ua="false" sId="1">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">FURN_9001</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="5" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="10" min="10" style="0" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="11" min="11" style="0" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="6" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="11" min="11" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="12" min="12" style="0" width="7.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -187,24 +248,30 @@
       <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>654</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>321</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>7</v>
       </c>
     </row>
